--- a/medicine/Psychotrope/Cannabis_en_république_démocratique_du_Congo/Cannabis_en_république_démocratique_du_Congo.xlsx
+++ b/medicine/Psychotrope/Cannabis_en_république_démocratique_du_Congo/Cannabis_en_république_démocratique_du_Congo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cannabis_en_r%C3%A9publique_d%C3%A9mocratique_du_Congo</t>
+          <t>Cannabis_en_république_démocratique_du_Congo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cannabis en république démocratique du Congo est illégal. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cannabis_en_r%C3%A9publique_d%C3%A9mocratique_du_Congo</t>
+          <t>Cannabis_en_république_démocratique_du_Congo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cannabis a peut-être été introduit dans la région du Congo dans les années 1850, transporté par des commerçants swahili de Zanzibar[1] . Dans les années 1880, le mouvement Beni Diamba (People of Cannabis) a popularisé l'usage rituel du cannabis dans le sud-ouest du Congo[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cannabis a peut-être été introduit dans la région du Congo dans les années 1850, transporté par des commerçants swahili de Zanzibar . Dans les années 1880, le mouvement Beni Diamba (People of Cannabis) a popularisé l'usage rituel du cannabis dans le sud-ouest du Congo. 
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cannabis_en_r%C3%A9publique_d%C3%A9mocratique_du_Congo</t>
+          <t>Cannabis_en_république_démocratique_du_Congo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Économie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cannabis est la seule drogue produite localement en RDC (qui est l'un des plus grands producteurs d'Afrique) et est principalement destiné à la consommation locale [3],[4] bien que de plus petites quantités soient introduites en contrebande en France et en Belgique[5]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cannabis est la seule drogue produite localement en RDC (qui est l'un des plus grands producteurs d'Afrique) et est principalement destiné à la consommation locale , bien que de plus petites quantités soient introduites en contrebande en France et en Belgique. 
 </t>
         </is>
       </c>
